--- a/input_spreadsheets/Bangladesh/subregionSpreadsheets/Dhaka.xlsx
+++ b/input_spreadsheets/Bangladesh/subregionSpreadsheets/Dhaka.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Health/Optima/Nutrition/development/Nutrition/input_spreadsheets/Bangladesh/subregionSpreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-26620" yWindow="-20" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="-6660" yWindow="-16060" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="22" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -32,13 +37,12 @@
     <sheet name="Interventions affected fraction" sheetId="23" r:id="rId23"/>
     <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
     <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
-    <sheet name="RR birth by type" sheetId="26" r:id="rId26"/>
-    <sheet name="birth distribution" sheetId="27" r:id="rId27"/>
-    <sheet name="time between births" sheetId="28" r:id="rId28"/>
-    <sheet name="RR birth by time" sheetId="29" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -263,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="78">
   <si>
     <t>indicators</t>
   </si>
@@ -497,36 +501,6 @@
   </si>
   <si>
     <t>Interventions</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>&lt;18 years</t>
-  </si>
-  <si>
-    <t>18-34 years</t>
-  </si>
-  <si>
-    <t>35-49 years</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>second or third</t>
-  </si>
-  <si>
-    <t>greater than third</t>
-  </si>
-  <si>
-    <t>&lt;18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>&lt;24 months</t>
   </si>
 </sst>
 </file>
@@ -754,6 +728,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1299,12 +1278,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1299,7 @@
         <v>4985632.0707023432</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1328,7 +1307,7 @@
         <v>1022479.8813076938</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1315,7 @@
         <v>1175191.9165277961</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1344,21 +1323,16 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1368,13 +1342,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1391,7 +1365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1410,7 +1384,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1429,7 +1403,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1448,7 +1422,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1467,7 +1441,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1486,7 +1460,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +1479,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
@@ -1524,7 +1498,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1543,117 +1517,112 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1665,9 +1634,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1681,7 +1650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>11.2</v>
       </c>
@@ -1697,11 +1666,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1713,9 +1677,9 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1735,7 +1699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1755,7 +1719,7 @@
         <v>2.211645569620253</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1778,11 +1742,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1792,12 +1751,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1817,7 +1776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1837,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1857,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1877,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1899,11 +1858,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1913,9 +1867,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1935,7 +1889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1957,11 +1911,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1971,9 +1920,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1987,7 +1936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2003,11 +1952,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2017,12 +1961,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2042,7 +1986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2062,7 +2006,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2070,7 +2014,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2078,7 +2022,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2088,11 +2032,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2102,12 +2041,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2127,7 +2066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -2147,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -2167,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -2187,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2209,11 +2148,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2223,13 +2157,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2249,7 +2183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -2269,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2277,7 +2211,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2287,11 +2221,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2301,12 +2230,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2323,7 +2252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
@@ -2340,14 +2269,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2356,11 +2285,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2372,13 +2296,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2386,7 +2310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>2017</v>
       </c>
@@ -2394,7 +2318,7 @@
         <v>1014168.7763287277</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -2402,7 +2326,7 @@
         <v>1005383.065425517</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2019</v>
       </c>
@@ -2410,7 +2334,7 @@
         <v>996042.99817230587</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2020</v>
       </c>
@@ -2418,7 +2342,7 @@
         <v>986099.48847434937</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2021</v>
       </c>
@@ -2426,7 +2350,7 @@
         <v>976644.29154410271</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>2022</v>
       </c>
@@ -2434,7 +2358,7 @@
         <v>967858.8332470993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2023</v>
       </c>
@@ -2442,7 +2366,7 @@
         <v>958408.44594848785</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2024</v>
       </c>
@@ -2450,7 +2374,7 @@
         <v>948319.29307153588</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2025</v>
       </c>
@@ -2458,7 +2382,7 @@
         <v>937600.26178951247</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2026</v>
       </c>
@@ -2466,7 +2390,7 @@
         <v>923450.48924988054</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2027</v>
       </c>
@@ -2474,7 +2398,7 @@
         <v>911995.89202460111</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2028</v>
       </c>
@@ -2482,7 +2406,7 @@
         <v>900051.43386116484</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2029</v>
       </c>
@@ -2490,7 +2414,7 @@
         <v>887632.67684505996</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2030</v>
       </c>
@@ -2501,11 +2425,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2513,11 +2432,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -2525,7 +2444,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2539,7 +2458,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2556,7 +2475,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2573,7 +2492,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2590,7 +2509,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2607,7 +2526,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2624,7 +2543,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2641,7 +2560,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2658,110 +2577,105 @@
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2773,7 +2687,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -2783,7 +2697,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2808,7 +2722,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2831,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2854,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2877,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2904,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2927,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2950,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2973,110 +2887,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3086,12 +2995,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -3111,7 +3020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3131,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -3151,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -3171,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -3190,11 +3099,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3204,12 +3108,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3232,7 +3136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3255,7 +3159,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3276,7 +3180,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3299,7 +3203,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3319,34 +3223,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3356,12 +3255,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3384,7 +3283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3407,7 +3306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3428,7 +3327,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3451,7 +3350,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3471,34 +3370,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3506,14 +3400,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3536,7 +3430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3559,7 +3453,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3580,7 +3474,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3603,7 +3497,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3623,413 +3517,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1711</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2908</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1048</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>0.2258</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.56979999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.03</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.77</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4041,9 +3551,9 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -4054,7 +3564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>26</v>
       </c>
@@ -4070,11 +3580,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4084,9 +3589,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4106,7 +3611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4126,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4146,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4166,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4186,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4206,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4226,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4246,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4266,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4286,7 +3791,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4306,7 +3811,7 @@
         <v>0.2883</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -4326,7 +3831,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4346,7 +3851,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4366,7 +3871,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4386,7 +3891,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4406,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4426,7 +3931,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4448,11 +3953,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4464,9 +3964,9 @@
       <selection activeCell="C10" sqref="C10:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -4489,7 +3989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -4512,7 +4012,7 @@
         <v>22.09619681378248</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4532,7 +4032,7 @@
         <v>28.961590721559187</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4552,7 +4052,7 @@
         <v>39.25323005817657</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4572,7 +4072,7 @@
         <v>11.66584422047778</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -4600,7 +4100,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4620,7 +4120,7 @@
         <v>38.629919288802284</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4640,7 +4140,7 @@
         <v>11.063569075124329</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4660,7 +4160,7 @@
         <v>1.4203047642899183</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -4683,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -4703,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4723,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -4748,11 +4248,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4762,9 +4257,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -4775,7 +4270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>3.1099999999999999E-2</v>
       </c>
@@ -4788,11 +4283,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4802,9 +4292,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4827,7 +4317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4850,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4870,7 +4360,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4890,7 +4380,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4910,7 +4400,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4933,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4953,7 +4443,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4973,7 +4463,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4993,7 +4483,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5016,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5036,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5056,7 +4546,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -5076,7 +4566,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5099,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5119,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5139,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5159,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5182,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5202,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5222,7 +4712,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5244,11 +4734,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5258,9 +4743,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5283,7 +4768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5306,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -5326,7 +4811,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -5346,7 +4831,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -5366,7 +4851,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -5389,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -5409,7 +4894,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -5429,7 +4914,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -5449,7 +4934,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5472,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5492,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5512,7 +4997,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -5532,7 +5017,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5555,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5575,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5595,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5615,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5638,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5658,7 +5143,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5678,7 +5163,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5700,11 +5185,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5714,12 +5194,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5742,7 +5222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5765,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5785,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
@@ -5805,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -5825,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5848,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -5868,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -5888,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -5908,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5931,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -5951,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5971,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -5991,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -6014,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -6034,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -6054,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -6074,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6097,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -6117,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -6137,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -6157,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -6180,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
@@ -6200,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -6220,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -6240,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6263,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -6283,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
@@ -6303,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -6325,10 +5805,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/subregionSpreadsheets/Dhaka.xlsx
+++ b/input_spreadsheets/Bangladesh/subregionSpreadsheets/Dhaka.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Health/Optima/Nutrition/development/Nutrition/input_spreadsheets/Bangladesh/subregionSpreadsheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-6660" yWindow="-16060" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="22" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -38,13 +33,13 @@
     <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
     <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1274,16 +1269,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1299,7 +1294,7 @@
         <v>4985632.0707023432</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1307,7 +1302,7 @@
         <v>1022479.8813076938</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1315,24 +1310,29 @@
         <v>1175191.9165277961</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1342,13 +1342,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1517,112 +1517,117 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1634,9 +1639,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1650,7 +1655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>11.2</v>
       </c>
@@ -1666,6 +1671,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1677,9 +1687,9 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1699,7 +1709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1719,7 +1729,7 @@
         <v>2.211645569620253</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1742,6 +1752,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1751,12 +1766,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1776,7 +1791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1796,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1816,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1836,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1858,6 +1873,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1867,9 +1887,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1889,7 +1909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1911,6 +1931,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1920,9 +1945,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1936,7 +1961,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1952,6 +1977,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1961,12 +1991,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -1986,7 +2016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2006,7 +2036,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2014,7 +2044,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2022,7 +2052,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2032,6 +2062,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2041,12 +2076,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2066,7 +2101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -2086,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -2106,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -2126,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2148,6 +2183,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2157,13 +2197,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2183,7 +2223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -2203,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2211,7 +2251,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2221,6 +2261,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2230,12 +2275,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2252,7 +2297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
@@ -2269,14 +2314,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2285,6 +2330,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2296,13 +2346,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2310,7 +2360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>2017</v>
       </c>
@@ -2318,7 +2368,7 @@
         <v>1014168.7763287277</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -2326,7 +2376,7 @@
         <v>1005383.065425517</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>2019</v>
       </c>
@@ -2334,7 +2384,7 @@
         <v>996042.99817230587</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5">
         <v>2020</v>
       </c>
@@ -2342,7 +2392,7 @@
         <v>986099.48847434937</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5">
         <v>2021</v>
       </c>
@@ -2350,7 +2400,7 @@
         <v>976644.29154410271</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5">
         <v>2022</v>
       </c>
@@ -2358,7 +2408,7 @@
         <v>967858.8332470993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="5">
         <v>2023</v>
       </c>
@@ -2366,7 +2416,7 @@
         <v>958408.44594848785</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="5">
         <v>2024</v>
       </c>
@@ -2374,7 +2424,7 @@
         <v>948319.29307153588</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="5">
         <v>2025</v>
       </c>
@@ -2382,7 +2432,7 @@
         <v>937600.26178951247</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="5">
         <v>2026</v>
       </c>
@@ -2390,7 +2440,7 @@
         <v>923450.48924988054</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="5">
         <v>2027</v>
       </c>
@@ -2398,7 +2448,7 @@
         <v>911995.89202460111</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="5">
         <v>2028</v>
       </c>
@@ -2406,7 +2456,7 @@
         <v>900051.43386116484</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="5">
         <v>2029</v>
       </c>
@@ -2414,7 +2464,7 @@
         <v>887632.67684505996</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="5">
         <v>2030</v>
       </c>
@@ -2425,6 +2475,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2436,7 +2491,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -2444,7 +2499,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2458,7 +2513,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2475,7 +2530,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2492,7 +2547,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2509,7 +2564,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2526,7 +2581,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2543,7 +2598,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2560,7 +2615,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2577,105 +2632,110 @@
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2687,7 +2747,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -2697,7 +2757,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2722,7 +2782,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2745,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2768,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2791,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2800,25 +2860,25 @@
       </c>
       <c r="C5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.3</v>
+        <v>0.307</v>
       </c>
       <c r="D5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.3</v>
+        <v>0.307</v>
       </c>
       <c r="E5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.3</v>
+        <v>0.307</v>
       </c>
       <c r="F5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.3</v>
+        <v>0.307</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2841,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2864,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2887,105 +2947,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2995,12 +3060,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -3020,7 +3085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3040,27 +3105,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.3</v>
+        <v>0.307</v>
       </c>
       <c r="D3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.3</v>
+        <v>0.307</v>
       </c>
       <c r="E3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.3</v>
+        <v>0.307</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -3080,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -3099,6 +3164,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3108,12 +3178,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3136,7 +3206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3159,7 +3229,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3180,7 +3250,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3203,7 +3273,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3223,29 +3293,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3255,12 +3330,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3283,7 +3358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3306,7 +3381,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3327,7 +3402,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3350,7 +3425,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3370,29 +3445,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3400,14 +3480,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3430,7 +3510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3453,7 +3533,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3474,7 +3554,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3497,7 +3577,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3517,29 +3597,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3551,9 +3636,9 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -3564,7 +3649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14">
       <c r="A2" s="7">
         <v>26</v>
       </c>
@@ -3580,6 +3665,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3589,9 +3679,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3611,7 +3701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3631,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3651,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3671,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3691,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3711,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3731,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3751,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3771,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3791,7 +3881,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3811,7 +3901,7 @@
         <v>0.2883</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3831,7 +3921,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3851,7 +3941,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3871,7 +3961,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3891,7 +3981,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3911,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3931,7 +4021,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3953,6 +4043,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3964,9 +4059,9 @@
       <selection activeCell="C10" sqref="C10:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3989,7 +4084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -4012,7 +4107,7 @@
         <v>22.09619681378248</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4032,7 +4127,7 @@
         <v>28.961590721559187</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4052,7 +4147,7 @@
         <v>39.25323005817657</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4072,7 +4167,7 @@
         <v>11.66584422047778</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -4100,7 +4195,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4120,7 +4215,7 @@
         <v>38.629919288802284</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4140,7 +4235,7 @@
         <v>11.063569075124329</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4160,7 +4255,7 @@
         <v>1.4203047642899183</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -4183,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -4203,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4223,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -4248,6 +4343,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4257,9 +4357,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -4270,7 +4370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>3.1099999999999999E-2</v>
       </c>
@@ -4283,6 +4383,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4292,9 +4397,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4317,7 +4422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4340,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4360,7 +4465,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4380,7 +4485,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4400,7 +4505,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4423,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4443,7 +4548,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4463,7 +4568,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4483,7 +4588,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4506,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4526,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4546,7 +4651,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -4566,7 +4671,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4589,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -4609,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -4629,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -4649,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4672,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -4692,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -4712,7 +4817,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -4734,6 +4839,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4743,9 +4853,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4768,7 +4878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4791,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4811,7 +4921,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4831,7 +4941,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4851,7 +4961,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4874,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4894,7 +5004,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4914,7 +5024,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4934,7 +5044,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4957,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4977,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4997,7 +5107,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -5017,7 +5127,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5040,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5060,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5080,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5100,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5123,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5143,7 +5253,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5163,7 +5273,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5185,6 +5295,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5194,12 +5309,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5222,7 +5337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5245,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5265,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
@@ -5285,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -5305,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5328,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -5348,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -5368,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -5388,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5411,7 +5526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -5431,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5451,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -5471,7 +5586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5494,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -5514,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -5534,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -5554,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -5577,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -5597,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -5617,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -5637,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -5660,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
@@ -5680,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -5700,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -5720,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5743,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -5763,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
@@ -5783,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -5805,5 +5920,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>